--- a/Gestion/Gantt.xlsx
+++ b/Gestion/Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUT\S1\TUT\PTUTS1A2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF98557-4953-4117-A30F-EEB7298C4B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0361850C-5D38-4260-AC02-6DD53F871BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A13C3DC5-E04F-4898-97B1-355632F1AC03}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A13C3DC5-E04F-4898-97B1-355632F1AC03}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,19 +33,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Semaines:</t>
   </si>
   <si>
     <t>Dates</t>
+  </si>
+  <si>
+    <t>Personnes</t>
+  </si>
+  <si>
+    <t>Gestion</t>
+  </si>
+  <si>
+    <t>Creation github</t>
+  </si>
+  <si>
+    <t>Creation Gantt</t>
+  </si>
+  <si>
+    <t>Recherches</t>
+  </si>
+  <si>
+    <t>Sondage</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>Redaction</t>
+  </si>
+  <si>
+    <t>Mise en ligne</t>
+  </si>
+  <si>
+    <t>Lancement</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Avancée</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>Rapport</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Partie 1</t>
+  </si>
+  <si>
+    <t>Partie 2</t>
+  </si>
+  <si>
+    <t>Partie 3</t>
+  </si>
+  <si>
+    <t>Mise en page</t>
+  </si>
+  <si>
+    <t>Relecture et Correction</t>
+  </si>
+  <si>
+    <t>Site Web</t>
+  </si>
+  <si>
+    <t>Prototypage</t>
+  </si>
+  <si>
+    <t>Gabarit</t>
+  </si>
+  <si>
+    <t>Arborescence</t>
+  </si>
+  <si>
+    <t>Charte graphique</t>
+  </si>
+  <si>
+    <t>Protype final</t>
+  </si>
+  <si>
+    <t>Developpement</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Rédaction</t>
+  </si>
+  <si>
+    <t>Groupe</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Déploiement</t>
+  </si>
+  <si>
+    <t>Soutenance</t>
+  </si>
+  <si>
+    <t>Redaction du contenu</t>
+  </si>
+  <si>
+    <t>Réalisation du diaporama</t>
+  </si>
+  <si>
+    <t>Entrainements</t>
+  </si>
+  <si>
+    <t>========</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,16 +173,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -70,16 +241,469 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,132 +1018,943 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA0F6FC-DDC7-4F9D-988F-0370E9C47430}">
-  <dimension ref="B2:T3"/>
+  <dimension ref="B1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="20" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="23" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2">
-        <v>44102</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44109</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44116</v>
-      </c>
-      <c r="H2" s="2">
-        <v>44123</v>
-      </c>
-      <c r="I2" s="2">
-        <v>44130</v>
-      </c>
-      <c r="J2" s="2">
-        <v>44137</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44144</v>
-      </c>
-      <c r="L2" s="2">
-        <v>44151</v>
-      </c>
-      <c r="M2" s="2">
-        <v>44158</v>
-      </c>
-      <c r="N2" s="2">
-        <v>44165</v>
-      </c>
-      <c r="O2" s="2">
-        <v>44172</v>
-      </c>
-      <c r="P2" s="2">
-        <v>44179</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>44186</v>
-      </c>
-      <c r="R2" s="2">
-        <v>44193</v>
-      </c>
-      <c r="S2" s="2">
-        <v>44200</v>
-      </c>
-      <c r="T2" s="2">
-        <v>44207</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7">
+        <v>44099</v>
+      </c>
+      <c r="I2" s="7">
+        <v>44106</v>
+      </c>
+      <c r="J2" s="7">
+        <v>44113</v>
+      </c>
+      <c r="K2" s="7">
+        <v>44120</v>
+      </c>
+      <c r="L2" s="7">
+        <v>44127</v>
+      </c>
+      <c r="M2" s="7">
+        <v>44134</v>
+      </c>
+      <c r="N2" s="7">
+        <v>44141</v>
+      </c>
+      <c r="O2" s="7">
+        <v>44148</v>
+      </c>
+      <c r="P2" s="7">
+        <v>44155</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>44162</v>
+      </c>
+      <c r="R2" s="7">
+        <v>44169</v>
+      </c>
+      <c r="S2" s="7">
+        <v>44176</v>
+      </c>
+      <c r="T2" s="7">
+        <v>44183</v>
+      </c>
+      <c r="U2" s="7">
+        <v>44190</v>
+      </c>
+      <c r="V2" s="7">
+        <v>44197</v>
+      </c>
+      <c r="W2" s="7">
+        <v>44204</v>
+      </c>
+      <c r="X2" s="8">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13">
         <v>40</v>
       </c>
-      <c r="F3">
+      <c r="I3" s="14">
         <v>41</v>
       </c>
-      <c r="G3">
+      <c r="J3" s="14">
         <v>42</v>
       </c>
-      <c r="H3">
+      <c r="K3" s="14">
         <v>43</v>
       </c>
-      <c r="I3">
+      <c r="L3" s="14">
         <v>44</v>
       </c>
-      <c r="J3">
+      <c r="M3" s="14">
         <v>45</v>
       </c>
-      <c r="K3">
+      <c r="N3" s="14">
         <v>46</v>
       </c>
-      <c r="L3">
+      <c r="O3" s="14">
         <v>47</v>
       </c>
-      <c r="M3">
+      <c r="P3" s="14">
         <v>48</v>
       </c>
-      <c r="N3">
+      <c r="Q3" s="14">
         <v>49</v>
       </c>
-      <c r="O3">
+      <c r="R3" s="14">
         <v>50</v>
       </c>
-      <c r="P3">
+      <c r="S3" s="14">
         <v>51</v>
       </c>
-      <c r="Q3">
+      <c r="T3" s="14">
         <v>52</v>
       </c>
-      <c r="R3">
+      <c r="U3" s="14">
         <v>53</v>
       </c>
-      <c r="S3">
+      <c r="V3" s="14">
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="W3" s="14">
         <v>2</v>
       </c>
-    </row>
+      <c r="X3" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="37">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="19"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="38"/>
+      <c r="C5" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="39">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="24"/>
+    </row>
+    <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="39">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="24"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="38"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="24"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="38"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="24"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="24"/>
+    </row>
+    <row r="10" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="24"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="24"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="39">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="24"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="38"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="39">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="24"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="38"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="39">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="24"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="39">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="24"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="39">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="24"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="38"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="39">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="24"/>
+    </row>
+    <row r="18" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="39">
+        <v>1</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="24"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="38"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="39">
+        <v>1</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="24"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="38"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="39">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="24"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="38"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="39">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="24"/>
+    </row>
+    <row r="22" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="38"/>
+      <c r="C22" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="39">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="24"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="38"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="39">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="24"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="38"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="39">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="24"/>
+    </row>
+    <row r="25" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="39">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="24"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="40"/>
+      <c r="C26" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="39">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="24"/>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="41"/>
+      <c r="C27" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="50"/>
+      <c r="G27" s="42">
+        <v>0</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="35"/>
+    </row>
+    <row r="28" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="19">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B6:B17"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>